--- a/biology/Histoire de la zoologie et de la botanique/Carl_Friedrich_Philipp_von_Martius/Carl_Friedrich_Philipp_von_Martius.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Friedrich_Philipp_von_Martius/Carl_Friedrich_Philipp_von_Martius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Friedrich Philipp von Martius est un botaniste, ethnographe et explorateur allemand, né le 17 avril 1794 à Erlangen et mort le 13 décembre 1868 (à 74 ans) à Munich.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Von Martius est le fils d'Ernst Wilhelm Martius (1756–1849), premier professeur de pharmacie de l'université d'Erlangen.
 Il obtient le titre de docteur en médecine à l'université d'Erlangen en 1814. Sa thèse est le catalogue critique des plantes du jardin botanique de l'université. Après cela, il se consacre entièrement à la botanique.
-En 1817, il est membre de l'expédition scientifique autrichienne au Brésil avec Johann Baptist von Spix et plusieurs autres savants[1]. Ils explorent le bassin de l'Amazone durant près de trois ans. À son retour en Europe en 1821, il devient le conservateur du jardin botanique de Munich et en 1826, professeur de botanique. Il conserve ces deux postes jusqu'en 1864.
-Il se consacre principalement à la flore du Brésil. Il publie notamment Nova Genera et Species Plantarum Brasiliensium [2](1823–1832, 3 vol.) et Icones selectae Plantarum Cryptogamicarum Brasiliensium[3] (1827). Il fait également paraître le récit de son voyage en trois volumes de 1823 à 1831, accompagnés d'un volume de planches.
+En 1817, il est membre de l'expédition scientifique autrichienne au Brésil avec Johann Baptist von Spix et plusieurs autres savants. Ils explorent le bassin de l'Amazone durant près de trois ans. À son retour en Europe en 1821, il devient le conservateur du jardin botanique de Munich et en 1826, professeur de botanique. Il conserve ces deux postes jusqu'en 1864.
+Il se consacre principalement à la flore du Brésil. Il publie notamment Nova Genera et Species Plantarum Brasiliensium (1823–1832, 3 vol.) et Icones selectae Plantarum Cryptogamicarum Brasiliensium (1827). Il fait également paraître le récit de son voyage en trois volumes de 1823 à 1831, accompagnés d'un volume de planches.
 Son ouvrage le plus célèbre est sans doute Historia Palmarum (1823-1850) en trois grands volumes, dans lequel il décrit les palmiers qu'il a découverts au Brésil. En 1840, en collaboration avec d'autres botanistes européens, il commence sa Flora Brasiliensis, qui est en réalité un ensemble de monographies sur des ordres variés. Cette publication est continuée après la mort de Martius par August Wilhelm Eichler (1839-1887) jusqu'en 1887, puis par Ignaz Urban (1848-1931).
 Après la mort de Spix en 1826, il publie des travaux sur les collections de zoologie constituées par ce dernier.
 Il fait paraître en 1842 ses observations sur une épidémie qui frappe la culture de la pomme de terre.
@@ -551,7 +565,9 @@
           <t>Œuvres (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Nova genera et species plantarum brasiliensium, 1823–1832 — En ligne : vol. 1 ; vol. 2 ; vol. 3 ; illustrations
 (avec Johann Baptist von Spix) (de) Reise in Brasilien in den Jahren 1817–1820, 1823–1831 — En ligne : vol. 1, 1854 ; deuxième partie, 1828 ; traduction anglaise, 1824. On a aussi une traduction portugaise : Viagem pelo Brasil, 1981
